--- a/data/trans_orig/IMC_inf_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7417453-5E64-4B47-B29C-4F9E1EF1E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DC8430E-B792-4242-ACF2-F053ADD09B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AD3DE94-7EFA-4F93-B9ED-DFD3B0AAA9C7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{439525AC-FE78-44A9-A4AE-FF9CA4A7048C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2007 (Tasa respuesta: 84,27%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2007 (Tasa respuesta: 84,27%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1276 +68,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>43,28%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
   </si>
   <si>
     <t>51,46%</t>
   </si>
   <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
   </si>
   <si>
     <t>56,72%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>37,76%</t>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2012 (Tasa respuesta: 74,13%)</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2016 (Tasa respuesta: 77,23%)</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
   </si>
   <si>
     <t>47,62%</t>
   </si>
   <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>Menores con sobrepeso u obesidad, declarado por los/as progenitores/as en 2023 (Tasa respuesta: 84,22%)</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>32,22%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
   </si>
   <si>
     <t>67,78%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2012 (Tasa respuesta: 74,13%)</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2016 (Tasa respuesta: 77,23%)</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad declarado en 2023 (Tasa respuesta: 84,22%)</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0592BD-491A-4C2B-B82F-742E7056EE52}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B21CEF0-35DA-425D-8562-926B919180AC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>10906</v>
+        <v>39276</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="I4" s="7">
-        <v>6303</v>
+        <v>62941</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="N4" s="7">
-        <v>17209</v>
+        <v>102217</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>9783</v>
+        <v>78820</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>15707</v>
+        <v>70702</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="N5" s="7">
-        <v>25489</v>
+        <v>149521</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>20689</v>
+        <v>118096</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="I6" s="7">
-        <v>22010</v>
+        <v>133643</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="N6" s="7">
-        <v>42698</v>
+        <v>251738</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7">
-        <v>52034</v>
+        <v>64293</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2037,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="I7" s="7">
-        <v>32974</v>
+        <v>87670</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2052,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="N7" s="7">
-        <v>85008</v>
+        <v>151963</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2073,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="D8" s="7">
-        <v>60920</v>
+        <v>106161</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2088,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="I8" s="7">
-        <v>63112</v>
+        <v>92960</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2103,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="N8" s="7">
-        <v>124032</v>
+        <v>199121</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2124,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="D9" s="7">
-        <v>112954</v>
+        <v>170454</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="I9" s="7">
-        <v>96086</v>
+        <v>180630</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>314</v>
+        <v>548</v>
       </c>
       <c r="N9" s="7">
-        <v>209040</v>
+        <v>351084</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2177,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>87670</v>
+        <v>37810</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2192,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7">
-        <v>64293</v>
+        <v>54196</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2207,10 +1994,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="N10" s="7">
-        <v>151963</v>
+        <v>92006</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2228,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7">
-        <v>92960</v>
+        <v>75557</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2243,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7">
-        <v>106161</v>
+        <v>66273</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2258,10 +2045,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="N11" s="7">
-        <v>199121</v>
+        <v>141830</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2279,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="D12" s="7">
-        <v>180630</v>
+        <v>113367</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="I12" s="7">
-        <v>170454</v>
+        <v>120469</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>548</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>351084</v>
+        <v>233836</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2119,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>54196</v>
+        <v>62345</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2347,10 +2134,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="I13" s="7">
-        <v>37810</v>
+        <v>70183</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2362,10 +2149,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>92006</v>
+        <v>132528</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2383,10 +2170,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D14" s="7">
-        <v>66273</v>
+        <v>113810</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2398,10 +2185,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="I14" s="7">
-        <v>75557</v>
+        <v>100528</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2413,10 +2200,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="N14" s="7">
-        <v>141830</v>
+        <v>214338</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2434,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D15" s="7">
-        <v>120469</v>
+        <v>176155</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="I15" s="7">
-        <v>113367</v>
+        <v>170711</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>374</v>
+        <v>482</v>
       </c>
       <c r="N15" s="7">
-        <v>233836</v>
+        <v>346866</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,55 +2268,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="D16" s="7">
-        <v>70183</v>
+        <v>203724</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>414</v>
+      </c>
+      <c r="I16" s="7">
+        <v>274990</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>82</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62345</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>723</v>
+      </c>
+      <c r="N16" s="7">
+        <v>478715</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>186</v>
-      </c>
-      <c r="N16" s="7">
-        <v>132528</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2325,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>147</v>
+        <v>554</v>
       </c>
       <c r="D17" s="7">
-        <v>100528</v>
+        <v>374348</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>496</v>
+      </c>
+      <c r="I17" s="7">
+        <v>330463</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>149</v>
-      </c>
-      <c r="I17" s="7">
-        <v>113810</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1050</v>
+      </c>
+      <c r="N17" s="7">
+        <v>704810</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>296</v>
-      </c>
-      <c r="N17" s="7">
-        <v>214338</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>251</v>
+        <v>863</v>
       </c>
       <c r="D18" s="7">
-        <v>170711</v>
+        <v>578072</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>231</v>
+        <v>910</v>
       </c>
       <c r="I18" s="7">
-        <v>176155</v>
+        <v>605453</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>482</v>
+        <v>1773</v>
       </c>
       <c r="N18" s="7">
-        <v>346866</v>
+        <v>1183525</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2422,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>414</v>
-      </c>
-      <c r="D19" s="7">
-        <v>274990</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>309</v>
-      </c>
-      <c r="I19" s="7">
-        <v>203724</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>723</v>
-      </c>
-      <c r="N19" s="7">
-        <v>478715</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>496</v>
-      </c>
-      <c r="D20" s="7">
-        <v>330463</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>554</v>
-      </c>
-      <c r="I20" s="7">
-        <v>374348</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1050</v>
-      </c>
-      <c r="N20" s="7">
-        <v>704810</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>910</v>
-      </c>
-      <c r="D21" s="7">
-        <v>605453</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>863</v>
-      </c>
-      <c r="I21" s="7">
-        <v>578072</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1773</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1183525</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F6BE83-3523-4289-95CB-2DD7A360BD5B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EC6E3D-AE94-48ED-807F-88A014A828F4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>9104</v>
+        <v>42477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>7005</v>
+        <v>53883</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="N4" s="7">
-        <v>16109</v>
+        <v>96360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7">
-        <v>10668</v>
+        <v>57957</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>9963</v>
+        <v>55019</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="N5" s="7">
-        <v>20631</v>
+        <v>112976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7">
-        <v>19772</v>
+        <v>100434</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I6" s="7">
-        <v>16968</v>
+        <v>108902</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="N6" s="7">
-        <v>36740</v>
+        <v>209336</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D7" s="7">
-        <v>44779</v>
+        <v>63949</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="I7" s="7">
-        <v>35472</v>
+        <v>93370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="N7" s="7">
-        <v>80251</v>
+        <v>157319</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="D8" s="7">
-        <v>44351</v>
+        <v>92228</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="I8" s="7">
-        <v>47995</v>
+        <v>74295</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="N8" s="7">
-        <v>92346</v>
+        <v>166523</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="D9" s="7">
-        <v>89130</v>
+        <v>156177</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="I9" s="7">
-        <v>83467</v>
+        <v>167665</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>245</v>
+        <v>482</v>
       </c>
       <c r="N9" s="7">
-        <v>172597</v>
+        <v>323842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3240,49 +2871,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>93370</v>
+        <v>47949</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7">
-        <v>63949</v>
+        <v>58608</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" s="7">
         <v>165</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10" s="7">
-        <v>233</v>
-      </c>
       <c r="N10" s="7">
-        <v>157319</v>
+        <v>106557</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,46 +2925,46 @@
         <v>107</v>
       </c>
       <c r="D11" s="7">
-        <v>74295</v>
+        <v>69054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="I11" s="7">
-        <v>92228</v>
+        <v>65520</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="N11" s="7">
-        <v>166523</v>
+        <v>134573</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="D12" s="7">
-        <v>167665</v>
+        <v>117003</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="I12" s="7">
-        <v>156177</v>
+        <v>124128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>482</v>
+        <v>375</v>
       </c>
       <c r="N12" s="7">
-        <v>323842</v>
+        <v>241130</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,49 +3026,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>58608</v>
+        <v>67792</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="I13" s="7">
-        <v>47949</v>
+        <v>75130</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
+        <v>190</v>
+      </c>
+      <c r="N13" s="7">
+        <v>142921</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="N13" s="7">
-        <v>106557</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7">
-        <v>65520</v>
+        <v>85624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>69054</v>
+        <v>80786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="N14" s="7">
-        <v>134573</v>
+        <v>166411</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D15" s="7">
-        <v>124128</v>
+        <v>153416</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="I15" s="7">
-        <v>117003</v>
+        <v>155916</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="N15" s="7">
-        <v>241130</v>
+        <v>309332</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3175,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="D16" s="7">
-        <v>75130</v>
+        <v>222166</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="I16" s="7">
-        <v>67792</v>
+        <v>280991</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>190</v>
+        <v>721</v>
       </c>
       <c r="N16" s="7">
-        <v>142921</v>
+        <v>503157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="D17" s="7">
-        <v>80786</v>
+        <v>304864</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>112</v>
+        <v>395</v>
       </c>
       <c r="I17" s="7">
-        <v>85624</v>
+        <v>275620</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>222</v>
+        <v>835</v>
       </c>
       <c r="N17" s="7">
-        <v>166411</v>
+        <v>580484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>213</v>
+        <v>757</v>
       </c>
       <c r="D18" s="7">
-        <v>155916</v>
+        <v>527030</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>199</v>
+        <v>799</v>
       </c>
       <c r="I18" s="7">
-        <v>153416</v>
+        <v>556611</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>412</v>
+        <v>1556</v>
       </c>
       <c r="N18" s="7">
-        <v>309332</v>
+        <v>1083641</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3329,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>404</v>
-      </c>
-      <c r="D19" s="7">
-        <v>280991</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>317</v>
-      </c>
-      <c r="I19" s="7">
-        <v>222166</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M19" s="7">
-        <v>721</v>
-      </c>
-      <c r="N19" s="7">
-        <v>503157</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>395</v>
-      </c>
-      <c r="D20" s="7">
-        <v>275620</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>440</v>
-      </c>
-      <c r="I20" s="7">
-        <v>304864</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>835</v>
-      </c>
-      <c r="N20" s="7">
-        <v>580484</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>799</v>
-      </c>
-      <c r="D21" s="7">
-        <v>556611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>757</v>
-      </c>
-      <c r="I21" s="7">
-        <v>527030</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1556</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1083641</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580DBC34-278A-42A8-A4BC-F02BB09121BA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE20DFD9-5CC2-477B-AFED-EE0CEEBAE572}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>9435</v>
+        <v>41944</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>7517</v>
+        <v>53276</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N4" s="7">
-        <v>16952</v>
+        <v>95220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7">
-        <v>7160</v>
+        <v>57609</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I5" s="7">
-        <v>10055</v>
+        <v>52960</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="N5" s="7">
-        <v>17215</v>
+        <v>110569</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D6" s="7">
-        <v>16595</v>
+        <v>99553</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7">
-        <v>17572</v>
+        <v>106236</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="N6" s="7">
-        <v>34167</v>
+        <v>205789</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>43840</v>
+        <v>46185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="I7" s="7">
-        <v>34427</v>
+        <v>81061</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="N7" s="7">
-        <v>78267</v>
+        <v>127246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D8" s="7">
-        <v>45800</v>
+        <v>115612</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="I8" s="7">
-        <v>47554</v>
+        <v>98593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="N8" s="7">
-        <v>93355</v>
+        <v>214205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="D9" s="7">
-        <v>89640</v>
+        <v>161797</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="I9" s="7">
-        <v>81981</v>
+        <v>179654</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>239</v>
+        <v>521</v>
       </c>
       <c r="N9" s="7">
-        <v>171622</v>
+        <v>341451</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4303,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>81061</v>
+        <v>41890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>46185</v>
+        <v>51881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="N10" s="7">
-        <v>127246</v>
+        <v>93771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7">
-        <v>98593</v>
+        <v>81458</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="I11" s="7">
-        <v>115612</v>
+        <v>82190</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="N11" s="7">
-        <v>214205</v>
+        <v>163649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="D12" s="7">
-        <v>179654</v>
+        <v>123348</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="I12" s="7">
-        <v>161797</v>
+        <v>134071</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>521</v>
+        <v>397</v>
       </c>
       <c r="N12" s="7">
-        <v>341451</v>
+        <v>257420</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4458,49 +3933,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>51881</v>
+        <v>59847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I13" s="7">
-        <v>41890</v>
+        <v>74955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>93771</v>
+        <v>134802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D14" s="7">
-        <v>82190</v>
+        <v>99856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I14" s="7">
-        <v>81458</v>
+        <v>89018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N14" s="7">
-        <v>163648</v>
+        <v>188874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="D15" s="7">
-        <v>134071</v>
+        <v>159703</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="I15" s="7">
-        <v>123348</v>
+        <v>163973</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="N15" s="7">
-        <v>257419</v>
+        <v>323676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4082,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="D16" s="7">
-        <v>74955</v>
+        <v>189866</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="I16" s="7">
-        <v>59847</v>
+        <v>261173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>186</v>
+        <v>655</v>
       </c>
       <c r="N16" s="7">
-        <v>134802</v>
+        <v>451038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>124</v>
+        <v>528</v>
       </c>
       <c r="D17" s="7">
-        <v>89018</v>
+        <v>354536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
-        <v>135</v>
+        <v>459</v>
       </c>
       <c r="I17" s="7">
-        <v>99856</v>
+        <v>322761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>259</v>
+        <v>987</v>
       </c>
       <c r="N17" s="7">
-        <v>188874</v>
+        <v>677298</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>230</v>
+        <v>811</v>
       </c>
       <c r="D18" s="7">
-        <v>163973</v>
+        <v>544402</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>215</v>
+        <v>831</v>
       </c>
       <c r="I18" s="7">
-        <v>159703</v>
+        <v>583934</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>445</v>
+        <v>1642</v>
       </c>
       <c r="N18" s="7">
-        <v>323676</v>
+        <v>1128336</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4236,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>372</v>
-      </c>
-      <c r="D19" s="7">
-        <v>261173</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>283</v>
-      </c>
-      <c r="I19" s="7">
-        <v>189866</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>655</v>
-      </c>
-      <c r="N19" s="7">
-        <v>451038</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>459</v>
-      </c>
-      <c r="D20" s="7">
-        <v>322761</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>528</v>
-      </c>
-      <c r="I20" s="7">
-        <v>354536</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>987</v>
-      </c>
-      <c r="N20" s="7">
-        <v>677298</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>831</v>
-      </c>
-      <c r="D21" s="7">
-        <v>583934</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>811</v>
-      </c>
-      <c r="I21" s="7">
-        <v>544402</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1642</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1128336</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC370F5-7B5A-422F-B567-239C79EB91F4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0436E1-28AF-43AC-A832-C322CA91A692}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>5031</v>
+        <v>29648</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I4" s="7">
-        <v>4456</v>
+        <v>46375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="N4" s="7">
-        <v>9487</v>
+        <v>76023</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7">
-        <v>5147</v>
+        <v>67639</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="I5" s="7">
-        <v>7042</v>
+        <v>75927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="N5" s="7">
-        <v>12189</v>
+        <v>143566</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7">
-        <v>10178</v>
+        <v>97287</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="I6" s="7">
-        <v>11498</v>
+        <v>122302</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4507,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="N6" s="7">
-        <v>21676</v>
+        <v>219589</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>39704</v>
+        <v>47325</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="I7" s="7">
-        <v>25478</v>
+        <v>88864</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="N7" s="7">
-        <v>65182</v>
+        <v>136189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>70</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7">
-        <v>61095</v>
+        <v>121036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="I8" s="7">
-        <v>63066</v>
+        <v>127632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
-        <v>174</v>
+        <v>340</v>
       </c>
       <c r="N8" s="7">
-        <v>124161</v>
+        <v>248668</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="D9" s="7">
-        <v>100799</v>
+        <v>168361</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="I9" s="7">
-        <v>88544</v>
+        <v>216496</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>272</v>
+        <v>522</v>
       </c>
       <c r="N9" s="7">
-        <v>189343</v>
+        <v>384857</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5366,49 +4685,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>86525</v>
+        <v>45507</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>48521</v>
+        <v>63719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="N10" s="7">
-        <v>135046</v>
+        <v>109226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7">
-        <v>126619</v>
+        <v>121037</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="I11" s="7">
-        <v>121664</v>
+        <v>100084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="N11" s="7">
-        <v>248283</v>
+        <v>221120</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="D12" s="7">
-        <v>213144</v>
+        <v>166544</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="I12" s="7">
-        <v>170185</v>
+        <v>163803</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4817,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>522</v>
+        <v>390</v>
       </c>
       <c r="N12" s="7">
-        <v>383329</v>
+        <v>330346</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,49 +4840,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>60122</v>
+        <v>40522</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>44114</v>
+        <v>55643</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N13" s="7">
-        <v>104236</v>
+        <v>96166</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D14" s="7">
-        <v>93822</v>
+        <v>102656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I14" s="7">
-        <v>102460</v>
+        <v>94609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="N14" s="7">
-        <v>196282</v>
+        <v>197264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,25 +4942,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>203</v>
+      </c>
+      <c r="D15" s="7">
+        <v>143178</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>196</v>
       </c>
-      <c r="D15" s="7">
-        <v>153944</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>194</v>
-      </c>
       <c r="I15" s="7">
-        <v>146574</v>
+        <v>150252</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="N15" s="7">
-        <v>300518</v>
+        <v>293430</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +4989,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="D16" s="7">
-        <v>53778</v>
+        <v>163002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="I16" s="7">
-        <v>40727</v>
+        <v>254601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M16" s="7">
+        <v>550</v>
+      </c>
+      <c r="N16" s="7">
+        <v>417604</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M16" s="7">
-        <v>125</v>
-      </c>
-      <c r="N16" s="7">
-        <v>94505</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5046,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>125</v>
+        <v>567</v>
       </c>
       <c r="D17" s="7">
-        <v>91990</v>
+        <v>412368</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
-        <v>149</v>
+        <v>500</v>
       </c>
       <c r="I17" s="7">
-        <v>106368</v>
+        <v>398251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
-        <v>274</v>
+        <v>1067</v>
       </c>
       <c r="N17" s="7">
-        <v>198358</v>
+        <v>810618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>196</v>
+        <v>801</v>
       </c>
       <c r="D18" s="7">
-        <v>145768</v>
+        <v>575370</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5112,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>203</v>
+        <v>816</v>
       </c>
       <c r="I18" s="7">
-        <v>147095</v>
+        <v>652852</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>399</v>
+        <v>1617</v>
       </c>
       <c r="N18" s="7">
-        <v>292863</v>
+        <v>1228222</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5143,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>316</v>
-      </c>
-      <c r="D19" s="7">
-        <v>245159</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="7">
-        <v>234</v>
-      </c>
-      <c r="I19" s="7">
-        <v>163297</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="7">
-        <v>550</v>
-      </c>
-      <c r="N19" s="7">
-        <v>408456</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>500</v>
-      </c>
-      <c r="D20" s="7">
-        <v>378675</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" s="7">
-        <v>567</v>
-      </c>
-      <c r="I20" s="7">
-        <v>400599</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N20" s="7">
-        <v>779274</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>816</v>
-      </c>
-      <c r="D21" s="7">
-        <v>623834</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>801</v>
-      </c>
-      <c r="I21" s="7">
-        <v>563896</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1617</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1187730</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
